--- a/medicine/Enfance/Corinne_Fleurot/Corinne_Fleurot.xlsx
+++ b/medicine/Enfance/Corinne_Fleurot/Corinne_Fleurot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corinne Fleurot est un auteur français de livre jeunesse, née le 14 janvier 1960 (64 ans) à Paris.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corinne Fleurot est née à Paris le 14 janvier 1960. Elle fait des études de lettres puis a enseigné. Elle suit des cours de théâtre, joue comme comédienne mais pratique également la mise en scène. Elle se consacre ensuite à l'écriture d'ouvrages pour la jeunesse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corinne Fleurot est née à Paris le 14 janvier 1960. Elle fait des études de lettres puis a enseigné. Elle suit des cours de théâtre, joue comme comédienne mais pratique également la mise en scène. Elle se consacre ensuite à l'écriture d'ouvrages pour la jeunesse.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Corinne Fleurot a notamment publié une pièce de théâtre en 1995[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Corinne Fleurot a notamment publié une pièce de théâtre en 1995 :
 Contre toute attente
-et plusieurs ouvrages pour la jeunesse[3] :
+et plusieurs ouvrages pour la jeunesse :
 Le petit chef de famille, illustrateur : Philippe Munch, Casterman, 1994
 Couscous, illustrateur : Hélène Perdereau, Albin Michel Jeunesse, 1994
 Z comme Zoo, illustrateur : Fernando Puig Rosado, Grasset Jeunesse, 1997
